--- a/data/trans_bre/P33A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-11.61699533379178</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.38379240522855</v>
+        <v>-12.38379240522857</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1822044852690948</v>
@@ -627,7 +627,7 @@
         <v>-0.142145585573431</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.1711714017315842</v>
+        <v>-0.1711714017315844</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.62987949338739</v>
+        <v>-19.06688767931114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.12148921323537</v>
+        <v>-15.46680259352222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.09477477540891</v>
+        <v>-17.59377927850663</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.222857854268798</v>
+        <v>-0.2282535143516564</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1818080679798091</v>
+        <v>-0.1860152812892064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2400113278271546</v>
+        <v>-0.2338351585144925</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.89631007036316</v>
+        <v>-11.33298920329317</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.858181103044651</v>
+        <v>-8.189178712502066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.00169983484261</v>
+        <v>-6.968061261487063</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1350874389831818</v>
+        <v>-0.1405749005163925</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.09930915121548799</v>
+        <v>-0.1018313629533184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1000913000051662</v>
+        <v>-0.09823620097580539</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-11.17094010501495</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-9.38960504517854</v>
+        <v>-9.389605045178573</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.122816511860756</v>
@@ -709,7 +709,7 @@
         <v>-0.1302701475842811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1192173310575489</v>
+        <v>-0.1192173310575493</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.89072401589425</v>
+        <v>-13.98617813190305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.01883358139849</v>
+        <v>-14.64903965249471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.71862432280669</v>
+        <v>-13.12924421191163</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1616786999267204</v>
+        <v>-0.1615014526022886</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1715822760261163</v>
+        <v>-0.16891749084735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1569728682079716</v>
+        <v>-0.1636013176844942</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.74599412632212</v>
+        <v>-7.010583353752059</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.718526614112692</v>
+        <v>-7.414955233207826</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.646394241812944</v>
+        <v>-5.864109472771774</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.0805917516696176</v>
+        <v>-0.08313891891896523</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09245683495765029</v>
+        <v>-0.0878006930309856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07297303720176379</v>
+        <v>-0.07631186812050046</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-8.514714578742556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.876672117030379</v>
+        <v>-5.876672117030357</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1056994654799204</v>
@@ -791,7 +791,7 @@
         <v>-0.09779066384156393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.06738286119983444</v>
+        <v>-0.06738286119983421</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.5338018717212</v>
+        <v>-12.32553602340991</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.31896369658062</v>
+        <v>-12.51940915465971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.799515161433856</v>
+        <v>-8.676381644160136</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1454400638599715</v>
+        <v>-0.1421239955356866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1395707015144274</v>
+        <v>-0.1420208029889024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09942876815785176</v>
+        <v>-0.09782296271036725</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.997084118339087</v>
+        <v>-5.501084928328244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.70947958162911</v>
+        <v>-4.918759858279551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.728699291719866</v>
+        <v>-2.973915281390294</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.06021311328177436</v>
+        <v>-0.06553516417483095</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.05522127442229289</v>
+        <v>-0.0570784690171442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03187803584369369</v>
+        <v>-0.03568667392202218</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.00386111483915</v>
+        <v>-14.22447526799822</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.89751283114002</v>
+        <v>-15.0476890261679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.67081743250076</v>
+        <v>-10.86481223003763</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1679647509651305</v>
+        <v>-0.1596408090501421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1785225665283476</v>
+        <v>-0.1785510462662087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1200754992780124</v>
+        <v>-0.1222097312377806</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-4.505019077131684</v>
+        <v>-3.692481301505844</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.196884231990394</v>
+        <v>-3.812589980460093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.721300720225567</v>
+        <v>-4.156099528003185</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.05260582327135321</v>
+        <v>-0.04355109749798951</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05350701417997378</v>
+        <v>-0.04896908186938323</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0436263526181099</v>
+        <v>-0.04826065353392418</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.38840373114021</v>
+        <v>-13.43469489280299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.68417568037083</v>
+        <v>-12.60216221400678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.14730872989391</v>
+        <v>-10.76592395755881</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1566145788813769</v>
+        <v>-0.1570759822615731</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1486681522654201</v>
+        <v>-0.147663461052646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1321287586588409</v>
+        <v>-0.1287681400074849</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-9.391901778960651</v>
+        <v>-9.311065220211612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.686776515366807</v>
+        <v>-8.657502363009865</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.157940607405017</v>
+        <v>-7.302958230866238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1119994761181137</v>
+        <v>-0.1107422901899171</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1039578522690641</v>
+        <v>-0.1030912124301513</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.08652161982444474</v>
+        <v>-0.08914419442876484</v>
       </c>
     </row>
     <row r="19">
